--- a/SuSS/2022_Sem2_ANL252_Python_4_Biz/3_Lecturer/3_PCT/Mark Input Sheet ANL 2022.xlsx
+++ b/SuSS/2022_Sem2_ANL252_Python_4_Biz/3_Lecturer/3_PCT/Mark Input Sheet ANL 2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\munishkumar-gh.github.io\SuSS\2022_Sem2_ANL252_Python_4_Biz\3_Lecturer\3_PCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D509DDB2-2997-44CB-9A24-CE6BB19C3BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA175FB5-58E8-473B-BE3F-9F57D193F0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1005" windowWidth="25935" windowHeight="12840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input Mark" sheetId="1" r:id="rId1"/>
@@ -1167,7 +1167,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>0.22222222222222221</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1176,7 +1176,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.27777777777777779</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3379,7 +3379,7 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="F4" s="13">
         <f>IF(F3&gt;0,AVERAGE($B$2:$B$61),"")</f>
-        <v>74.999999999999972</v>
+        <v>70.370370370370352</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3457,7 +3457,7 @@
       </c>
       <c r="F5" s="14">
         <f>IF(F3&gt;1,STDEV($B$2:$B$61),"")</f>
-        <v>8.4515425472853138</v>
+        <v>14.426117800002336</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="B6" s="8">
         <f>Marks!E6</f>
-        <v>66.666666666666657</v>
+        <v>50</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -3504,7 +3504,7 @@
       </c>
       <c r="B8" s="8">
         <f>Marks!E8</f>
-        <v>66.666666666666657</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
@@ -3554,7 +3554,7 @@
       </c>
       <c r="B10" s="8">
         <f>Marks!E10</f>
-        <v>66.666666666666657</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
@@ -3620,7 +3620,7 @@
       </c>
       <c r="I12" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;70")-COUNTIF($B$2:$B$61,"&lt;65"))/$F$3,"")</f>
-        <v>0.5</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="I15" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;55")-COUNTIF($B$2:$B$61,"&lt;50"))/$F$3,"")</f>
-        <v>0</v>
+        <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3779,7 +3779,7 @@
       </c>
       <c r="B19" s="8">
         <f>Marks!E19</f>
-        <v>66.666666666666657</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -3869,7 +3869,7 @@
       </c>
       <c r="B29" s="8">
         <f>Marks!E29</f>
-        <v>66.666666666666657</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -3887,7 +3887,7 @@
       </c>
       <c r="B31" s="8">
         <f>Marks!E31</f>
-        <v>66.666666666666657</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -3896,7 +3896,7 @@
       </c>
       <c r="B32" s="8">
         <f>Marks!E32</f>
-        <v>66.666666666666657</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -3914,7 +3914,7 @@
       </c>
       <c r="B34" s="8">
         <f>Marks!E34</f>
-        <v>66.666666666666657</v>
+        <v>50</v>
       </c>
       <c r="D34" s="43" t="s">
         <v>39</v>
@@ -3951,7 +3951,7 @@
       </c>
       <c r="B37" s="8">
         <f>Marks!E37</f>
-        <v>66.666666666666657</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -3960,7 +3960,7 @@
       </c>
       <c r="B38" s="8">
         <f>Marks!E38</f>
-        <v>66.666666666666657</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -4131,8 +4131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4242,11 +4242,11 @@
         <v>92</v>
       </c>
       <c r="D6" s="30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" s="31">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -4278,11 +4278,11 @@
         <v>96</v>
       </c>
       <c r="D8" s="30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" s="31">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -4314,11 +4314,11 @@
         <v>100</v>
       </c>
       <c r="D10" s="30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" s="31">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -4476,11 +4476,11 @@
         <v>118</v>
       </c>
       <c r="D19" s="30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19" s="31">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -4656,11 +4656,11 @@
         <v>138</v>
       </c>
       <c r="D29" s="30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E29" s="31">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -4692,11 +4692,11 @@
         <v>142</v>
       </c>
       <c r="D31" s="30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E31" s="31">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -4710,11 +4710,11 @@
         <v>144</v>
       </c>
       <c r="D32" s="30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E32" s="31">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -4746,11 +4746,11 @@
         <v>148</v>
       </c>
       <c r="D34" s="30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E34" s="31">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>50</v>
       </c>
       <c r="F34" s="25"/>
     </row>
@@ -4801,11 +4801,11 @@
         <v>154</v>
       </c>
       <c r="D37" s="30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E37" s="31">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -4819,11 +4819,11 @@
         <v>156</v>
       </c>
       <c r="D38" s="30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E38" s="31">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">

--- a/SuSS/2022_Sem2_ANL252_Python_4_Biz/3_Lecturer/3_PCT/Mark Input Sheet ANL 2022.xlsx
+++ b/SuSS/2022_Sem2_ANL252_Python_4_Biz/3_Lecturer/3_PCT/Mark Input Sheet ANL 2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\munishkumar-gh.github.io\SuSS\2022_Sem2_ANL252_Python_4_Biz\3_Lecturer\3_PCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA175FB5-58E8-473B-BE3F-9F57D193F0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D47328-F638-41A4-9D05-9AEE83F6C4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17880" yWindow="195" windowWidth="10260" windowHeight="14940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input Mark" sheetId="1" r:id="rId1"/>
@@ -881,7 +881,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -926,9 +926,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -943,9 +940,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -963,9 +957,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -978,11 +969,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1176,7 +1179,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.27777777777777779</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1185,7 +1188,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2.8571428571428571E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3413,7 +3416,7 @@
       </c>
       <c r="B2" s="8">
         <f>Marks!E2</f>
-        <v>66.666666666666657</v>
+        <v>50</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="1"/>
@@ -3424,7 +3427,7 @@
       </c>
       <c r="B3" s="8">
         <f>Marks!E3</f>
-        <v>66.666666666666657</v>
+        <v>83.333333333333343</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>28</v>
@@ -3444,7 +3447,7 @@
       </c>
       <c r="F4" s="13">
         <f>IF(F3&gt;0,AVERAGE($B$2:$B$61),"")</f>
-        <v>70.370370370370352</v>
+        <v>68.981481481481467</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3457,7 +3460,7 @@
       </c>
       <c r="F5" s="14">
         <f>IF(F3&gt;1,STDEV($B$2:$B$61),"")</f>
-        <v>14.426117800002336</v>
+        <v>18.323710798444864</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3480,7 +3483,7 @@
       </c>
       <c r="B7" s="8">
         <f>Marks!E7</f>
-        <v>83.333333333333343</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>36</v>
@@ -3504,7 +3507,7 @@
       </c>
       <c r="B8" s="8">
         <f>Marks!E8</f>
-        <v>50</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
@@ -3529,7 +3532,7 @@
       </c>
       <c r="B9" s="8">
         <f>Marks!E9</f>
-        <v>83.333333333333343</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
         <v>29</v>
@@ -3629,7 +3632,7 @@
       </c>
       <c r="B13" s="8">
         <f>Marks!E13</f>
-        <v>66.666666666666657</v>
+        <v>83.333333333333343</v>
       </c>
       <c r="E13" t="s">
         <v>32</v>
@@ -3654,7 +3657,7 @@
       </c>
       <c r="B14" s="8">
         <f>Marks!E14</f>
-        <v>66.666666666666657</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
@@ -3695,7 +3698,7 @@
       </c>
       <c r="I15" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;55")-COUNTIF($B$2:$B$61,"&lt;50"))/$F$3,"")</f>
-        <v>0.27777777777777779</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3704,7 +3707,7 @@
       </c>
       <c r="B16" s="8">
         <f>Marks!E16</f>
-        <v>83.333333333333343</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
@@ -3754,7 +3757,7 @@
       </c>
       <c r="B18" s="8">
         <f>Marks!E18</f>
-        <v>66.666666666666657</v>
+        <v>50</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>15</v>
@@ -3770,7 +3773,7 @@
       </c>
       <c r="I18" s="17">
         <f>IF($F$3&gt;0,COUNTIF($B$2:$B$61,"&lt;40")/COUNTIF($B$2:$B$61,"&gt;0"),"")</f>
-        <v>0</v>
+        <v>2.8571428571428571E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3779,7 +3782,7 @@
       </c>
       <c r="B19" s="8">
         <f>Marks!E19</f>
-        <v>50</v>
+        <v>83.333333333333343</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -3788,7 +3791,7 @@
       </c>
       <c r="B20" s="8">
         <f>Marks!E20</f>
-        <v>83.333333333333343</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3797,7 +3800,7 @@
       </c>
       <c r="B21" s="8">
         <f>Marks!E21</f>
-        <v>83.333333333333343</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -3806,7 +3809,7 @@
       </c>
       <c r="B22" s="8">
         <f>Marks!E22</f>
-        <v>83.333333333333343</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -3815,7 +3818,7 @@
       </c>
       <c r="B23" s="8">
         <f>Marks!E23</f>
-        <v>83.333333333333343</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3833,7 +3836,7 @@
       </c>
       <c r="B25" s="8">
         <f>Marks!E25</f>
-        <v>83.333333333333343</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -3869,7 +3872,7 @@
       </c>
       <c r="B29" s="8">
         <f>Marks!E29</f>
-        <v>50</v>
+        <v>83.333333333333343</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -3887,7 +3890,7 @@
       </c>
       <c r="B31" s="8">
         <f>Marks!E31</f>
-        <v>50</v>
+        <v>83.333333333333343</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -3896,7 +3899,7 @@
       </c>
       <c r="B32" s="8">
         <f>Marks!E32</f>
-        <v>50</v>
+        <v>83.333333333333343</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -3914,18 +3917,18 @@
       </c>
       <c r="B34" s="8">
         <f>Marks!E34</f>
-        <v>50</v>
-      </c>
-      <c r="D34" s="43" t="s">
+        <v>83.333333333333343</v>
+      </c>
+      <c r="D34" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
@@ -3933,7 +3936,7 @@
       </c>
       <c r="B35" s="8">
         <f>Marks!E35</f>
-        <v>83.333333333333343</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -3942,7 +3945,7 @@
       </c>
       <c r="B36" s="8">
         <f>Marks!E36</f>
-        <v>66.666666666666657</v>
+        <v>83.333333333333343</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -3960,7 +3963,7 @@
       </c>
       <c r="B38" s="8">
         <f>Marks!E38</f>
-        <v>50</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -3969,7 +3972,7 @@
       </c>
       <c r="B39" s="8">
         <f>Marks!E39</f>
-        <v>66.666666666666657</v>
+        <v>83.333333333333343</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -4132,17 +4135,18 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E26" sqref="E26:E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.5703125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="25"/>
-    <col min="7" max="16384" width="9.140625" style="26"/>
+    <col min="1" max="1" width="40.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="10" style="25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="13.5703125" style="24" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="13.5703125" style="44" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.140625" style="24"/>
+    <col min="7" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4158,690 +4162,690 @@
       <c r="D1" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="24" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="34">
+        <v>3</v>
+      </c>
+      <c r="E2" s="41">
+        <f>SUM(D2:D2)/$F$2*100</f>
+        <v>50</v>
+      </c>
+      <c r="F2" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="29">
+        <v>5</v>
+      </c>
+      <c r="E3" s="42">
+        <f>SUM(D3:D3)/$F$2*100</f>
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="29">
+        <v>3</v>
+      </c>
+      <c r="E4" s="42">
+        <f>SUM(D4:D4)/$F$2*100</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="30"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="29">
+        <v>3</v>
+      </c>
+      <c r="E6" s="42">
+        <f>SUM(D6:D6)/$F$2*100</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="29">
+        <v>4</v>
+      </c>
+      <c r="E7" s="42">
+        <f>SUM(D7:D7)/$F$2*100</f>
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="29">
+        <v>4</v>
+      </c>
+      <c r="E8" s="42">
+        <f>SUM(D8:D8)/$F$2*100</f>
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="42"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="29">
+        <v>3</v>
+      </c>
+      <c r="E10" s="42">
+        <f>SUM(D10:D10)/$F$2*100</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="29">
+        <v>5</v>
+      </c>
+      <c r="E11" s="42">
+        <f>SUM(D11:D11)/$F$2*100</f>
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="29">
+        <v>5</v>
+      </c>
+      <c r="E12" s="42">
+        <f>SUM(D12:D12)/$F$2*100</f>
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="29">
+        <v>5</v>
+      </c>
+      <c r="E13" s="42">
+        <f>SUM(D13:D13)/$F$2*100</f>
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="29">
+        <v>3</v>
+      </c>
+      <c r="E14" s="42">
+        <f>SUM(D14:D14)/$F$2*100</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="29">
+        <v>5</v>
+      </c>
+      <c r="E15" s="42">
+        <f>SUM(D15:D15)/$F$2*100</f>
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="29">
+        <v>3</v>
+      </c>
+      <c r="E16" s="42">
+        <f>SUM(D16:D16)/$F$2*100</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="29">
+        <v>4</v>
+      </c>
+      <c r="E17" s="42">
+        <f>SUM(D17:D17)/$F$2*100</f>
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="29">
+        <v>3</v>
+      </c>
+      <c r="E18" s="42">
+        <f>SUM(D18:D18)/$F$2*100</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="29">
+        <v>5</v>
+      </c>
+      <c r="E19" s="42">
+        <f>SUM(D19:D19)/$F$2*100</f>
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B20" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C20" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D20" s="29">
         <v>4</v>
       </c>
-      <c r="E2" s="37">
-        <f>SUM(D2:D2)/$F$2*100</f>
+      <c r="E20" s="42">
+        <f>SUM(D20:D20)/$F$2*100</f>
         <v>66.666666666666657</v>
       </c>
-      <c r="F2" s="25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="30">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="29">
         <v>4</v>
       </c>
-      <c r="E3" s="31">
-        <f t="shared" ref="E3:E39" si="0">SUM(D3:D3)/$F$2*100</f>
+      <c r="E21" s="42">
+        <f>SUM(D21:D21)/$F$2*100</f>
         <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="30">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" s="29">
+        <v>4</v>
+      </c>
+      <c r="E22" s="42">
+        <f>SUM(D22:D22)/$F$2*100</f>
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="29">
         <v>3</v>
       </c>
-      <c r="E6" s="31">
-        <f t="shared" si="0"/>
+      <c r="E23" s="42">
+        <f>SUM(D23:D23)/$F$2*100</f>
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="29">
+        <v>5</v>
+      </c>
+      <c r="E24" s="42">
+        <f>SUM(D24:D24)/$F$2*100</f>
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="29">
+        <v>3</v>
+      </c>
+      <c r="E25" s="42">
+        <f>SUM(D25:D25)/$F$2*100</f>
         <v>50</v>
       </c>
-      <c r="B7" s="28" t="s">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="29">
+        <v>5</v>
+      </c>
+      <c r="E26" s="42">
+        <f>SUM(D26:D26)/$F$2*100</f>
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="29">
+        <v>5</v>
+      </c>
+      <c r="E27" s="42">
+        <f>SUM(D27:D27)/$F$2*100</f>
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="29">
+        <v>5</v>
+      </c>
+      <c r="E28" s="42">
+        <f>SUM(D28:D28)/$F$2*100</f>
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="29">
+        <v>5</v>
+      </c>
+      <c r="E29" s="42">
+        <f>SUM(D29:D29)/$F$2*100</f>
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="29">
+        <v>5</v>
+      </c>
+      <c r="E30" s="42">
+        <f>SUM(D30:D30)/$F$2*100</f>
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" s="29">
+        <v>5</v>
+      </c>
+      <c r="E31" s="42">
+        <f>SUM(D31:D31)/$F$2*100</f>
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C32" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D32" s="29">
         <v>5</v>
       </c>
-      <c r="E7" s="31">
-        <f t="shared" si="0"/>
+      <c r="E32" s="42">
+        <f>SUM(D32:D32)/$F$2*100</f>
         <v>83.333333333333343</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="30">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" s="29">
+        <v>5</v>
+      </c>
+      <c r="E33" s="42">
+        <f>SUM(D33:D33)/$F$2*100</f>
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="29">
+        <v>5</v>
+      </c>
+      <c r="E34" s="42">
+        <f>SUM(D34:D34)/$F$2*100</f>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="F34" s="24"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="D35" s="29">
+        <v>4</v>
+      </c>
+      <c r="E35" s="42">
+        <f>SUM(D35:D35)/$F$2*100</f>
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="29">
+        <v>5</v>
+      </c>
+      <c r="E36" s="42">
+        <f>SUM(D36:D36)/$F$2*100</f>
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D37" s="29">
         <v>3</v>
       </c>
-      <c r="E8" s="31">
-        <f t="shared" si="0"/>
+      <c r="E37" s="42">
+        <f>SUM(D37:D37)/$F$2*100</f>
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="30">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="29">
+        <v>4</v>
+      </c>
+      <c r="E38" s="42">
+        <f>SUM(D38:D38)/$F$2*100</f>
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" s="38">
         <v>5</v>
       </c>
-      <c r="E9" s="31">
-        <f t="shared" si="0"/>
+      <c r="E39" s="43">
+        <f>SUM(D39:D39)/$F$2*100</f>
         <v>83.333333333333343</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="30">
-        <v>3</v>
-      </c>
-      <c r="E10" s="31">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="30">
-        <v>5</v>
-      </c>
-      <c r="E11" s="31">
-        <f t="shared" si="0"/>
-        <v>83.333333333333343</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="30">
-        <v>5</v>
-      </c>
-      <c r="E12" s="31">
-        <f t="shared" si="0"/>
-        <v>83.333333333333343</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="30">
-        <v>4</v>
-      </c>
-      <c r="E13" s="31">
-        <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="30">
-        <v>4</v>
-      </c>
-      <c r="E14" s="31">
-        <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="30">
-        <v>5</v>
-      </c>
-      <c r="E15" s="31">
-        <f t="shared" si="0"/>
-        <v>83.333333333333343</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" s="30">
-        <v>5</v>
-      </c>
-      <c r="E16" s="31">
-        <f t="shared" si="0"/>
-        <v>83.333333333333343</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="30">
-        <v>4</v>
-      </c>
-      <c r="E17" s="31">
-        <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" s="30">
-        <v>4</v>
-      </c>
-      <c r="E18" s="31">
-        <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="30">
-        <v>3</v>
-      </c>
-      <c r="E19" s="31">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" s="30">
-        <v>5</v>
-      </c>
-      <c r="E20" s="31">
-        <f t="shared" si="0"/>
-        <v>83.333333333333343</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="30">
-        <v>5</v>
-      </c>
-      <c r="E21" s="31">
-        <f t="shared" si="0"/>
-        <v>83.333333333333343</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="D22" s="30">
-        <v>5</v>
-      </c>
-      <c r="E22" s="31">
-        <f t="shared" si="0"/>
-        <v>83.333333333333343</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23" s="30">
-        <v>5</v>
-      </c>
-      <c r="E23" s="31">
-        <f t="shared" si="0"/>
-        <v>83.333333333333343</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="D24" s="30">
-        <v>5</v>
-      </c>
-      <c r="E24" s="31">
-        <f t="shared" si="0"/>
-        <v>83.333333333333343</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="D25" s="30">
-        <v>5</v>
-      </c>
-      <c r="E25" s="31">
-        <f t="shared" si="0"/>
-        <v>83.333333333333343</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="D26" s="30">
-        <v>5</v>
-      </c>
-      <c r="E26" s="31">
-        <f t="shared" si="0"/>
-        <v>83.333333333333343</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="D27" s="30">
-        <v>5</v>
-      </c>
-      <c r="E27" s="31">
-        <f t="shared" si="0"/>
-        <v>83.333333333333343</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="D28" s="30">
-        <v>5</v>
-      </c>
-      <c r="E28" s="31">
-        <f t="shared" si="0"/>
-        <v>83.333333333333343</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="D29" s="30">
-        <v>3</v>
-      </c>
-      <c r="E29" s="31">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="D30" s="30">
-        <v>5</v>
-      </c>
-      <c r="E30" s="31">
-        <f t="shared" si="0"/>
-        <v>83.333333333333343</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="D31" s="30">
-        <v>3</v>
-      </c>
-      <c r="E31" s="31">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="D32" s="30">
-        <v>3</v>
-      </c>
-      <c r="E32" s="31">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="D33" s="30">
-        <v>5</v>
-      </c>
-      <c r="E33" s="31">
-        <f t="shared" si="0"/>
-        <v>83.333333333333343</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="D34" s="30">
-        <v>3</v>
-      </c>
-      <c r="E34" s="31">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="F34" s="25"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="D35" s="30">
-        <v>5</v>
-      </c>
-      <c r="E35" s="31">
-        <f t="shared" si="0"/>
-        <v>83.333333333333343</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="D36" s="30">
-        <v>4</v>
-      </c>
-      <c r="E36" s="31">
-        <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="D37" s="30">
-        <v>3</v>
-      </c>
-      <c r="E37" s="31">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="C38" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="D38" s="30">
-        <v>3</v>
-      </c>
-      <c r="E38" s="31">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="C39" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="D39" s="41">
-        <v>4</v>
-      </c>
-      <c r="E39" s="42">
-        <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
       </c>
     </row>
   </sheetData>
@@ -4850,6 +4854,9 @@
       <sortCondition ref="A2:A34"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E39">
+    <sortCondition ref="A2:A39"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
